--- a/data/trans_dic/P22$mutuaSPriv-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.01601976782684651</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.02954427152349131</v>
+        <v>0.02954427152349132</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0124811592208863</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009510454693916584</v>
+        <v>0.009437148413122843</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02219099898385443</v>
+        <v>0.02196992172405789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.003335159392504667</v>
+        <v>0.006302938803371998</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01610756040167304</v>
+        <v>0.01659384383412538</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.003668101952176859</v>
+        <v>0.003725677305103282</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.007096037096586301</v>
+        <v>0.009945927702743055</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.00319965641442547</v>
+        <v>0.00322903060006762</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01603928093753049</v>
+        <v>0.01688739401736444</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009594621511080537</v>
+        <v>0.008399317827846441</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01956170666298643</v>
+        <v>0.01940371626721592</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.006360051164170536</v>
+        <v>0.006794754310325175</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01928218860450339</v>
+        <v>0.01885952239654156</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04821782857878976</v>
+        <v>0.04931035380550727</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07629233751491497</v>
+        <v>0.07584344113328115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04070164529872921</v>
+        <v>0.04693420697449754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05254779227118599</v>
+        <v>0.05174076605151191</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03354646511433985</v>
+        <v>0.03341168429200547</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04397224496835421</v>
+        <v>0.04556924989900733</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0299906756436446</v>
+        <v>0.02976190080829819</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04943447247995075</v>
+        <v>0.05135449562172558</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03506327879935187</v>
+        <v>0.03220154749071764</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05229000529193138</v>
+        <v>0.05157481382156652</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02835236542903954</v>
+        <v>0.02972747403511873</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0432023208876814</v>
+        <v>0.04393776588383812</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02149349938362466</v>
+        <v>0.02074389579575762</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01767450861322573</v>
+        <v>0.01817041614831628</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002009815944965079</v>
+        <v>0.001999871675709458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.00750654150027051</v>
+        <v>0.007431281170655758</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0180188551483757</v>
+        <v>0.01792389280537226</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02452465419418915</v>
+        <v>0.02286900325994452</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.003785777242414949</v>
+        <v>0.003975775463517382</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01523309713828918</v>
+        <v>0.01510805599430932</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02291232411490833</v>
+        <v>0.02341807577036198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02549805261166984</v>
+        <v>0.02422618634169901</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004044259085203239</v>
+        <v>0.003973772015504327</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01420115264238321</v>
+        <v>0.01377281601018603</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05607578537434984</v>
+        <v>0.05701131813889716</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05438018935025587</v>
+        <v>0.05542292736961123</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01854332844209494</v>
+        <v>0.01835355078425981</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03339225220993212</v>
+        <v>0.03396227319359683</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05070935443162417</v>
+        <v>0.04981407575475792</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0641385630799466</v>
+        <v>0.06135943706214683</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0231195889835369</v>
+        <v>0.02524193561181256</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04028847836397214</v>
+        <v>0.03968591878246206</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04655468430049491</v>
+        <v>0.04891583916143104</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05278583144938085</v>
+        <v>0.05291116690827866</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01717619067158902</v>
+        <v>0.01560607243490559</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03202217916670328</v>
+        <v>0.03182750031733626</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03276338364623677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01902756931013363</v>
+        <v>0.01902756931013364</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01079459553783619</v>
@@ -986,32 +986,32 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01610257623948521</v>
+        <v>0.01663228127404145</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008347234257837882</v>
+        <v>0.007659274230561579</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002677865445582511</v>
+        <v>0.002769761330738603</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.002623987223256988</v>
+        <v>0.002613859039157676</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.003770233908395767</v>
+        <v>0.004623072465211348</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002766294827998823</v>
+        <v>0.002731753896450001</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01160825371240507</v>
+        <v>0.01095099034140072</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.008241725023693995</v>
+        <v>0.008097611929554858</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01686249248773511</v>
+        <v>0.01673291620886947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02121711157286301</v>
+        <v>0.02127898299705152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05543556581959026</v>
+        <v>0.05866555465441305</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03729748744346949</v>
+        <v>0.03897324758321528</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02668095283878109</v>
+        <v>0.02675467535759022</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.02399252770676563</v>
+        <v>0.02311749752001636</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02081264153215663</v>
+        <v>0.02138426973315829</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01666805626879868</v>
+        <v>0.01733781828334193</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01135575311681814</v>
+        <v>0.01058055547540512</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03255596245771128</v>
+        <v>0.03265982919595845</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02474815041330415</v>
+        <v>0.02487180753803336</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.02109990799764019</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06461449060255303</v>
+        <v>0.06461449060255302</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02044921896080189</v>
@@ -1101,7 +1101,7 @@
         <v>0.022330922557686</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04858397096927659</v>
+        <v>0.04858397096927658</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007543165861622354</v>
+        <v>0.007641700822152534</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02053612625743002</v>
+        <v>0.02437048342990787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008312847317685239</v>
+        <v>0.01014928420282115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03939018042408148</v>
+        <v>0.03914657215102956</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009984959024605587</v>
+        <v>0.009699762298300448</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01066605148012551</v>
+        <v>0.01085337745172455</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01085587317959323</v>
+        <v>0.009091803920321774</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0210810870794117</v>
+        <v>0.02157724548907716</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01114050406439878</v>
+        <v>0.01192180171168104</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02042634469638385</v>
+        <v>0.02154876226283576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01159294452794897</v>
+        <v>0.01256075550066323</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03435867418530889</v>
+        <v>0.03418529376381935</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04219076285054062</v>
+        <v>0.04472913413929513</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06984184399103543</v>
+        <v>0.07409821259840595</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04173803309508905</v>
+        <v>0.04529831123663115</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.106582254809575</v>
+        <v>0.1134325350908743</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03979181269033229</v>
+        <v>0.03810992005863491</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0405143076738636</v>
+        <v>0.04122376689969664</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0470578675732294</v>
+        <v>0.04623739123645036</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05403504188450498</v>
+        <v>0.05317731408346618</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03319636456539269</v>
+        <v>0.03275815807125605</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04860977190349993</v>
+        <v>0.05059193588031719</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03572724770361407</v>
+        <v>0.0388516025615097</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07111290328957381</v>
+        <v>0.07540208193754165</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>0.02384386076096187</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.01850259814868273</v>
+        <v>0.01850259814868272</v>
       </c>
     </row>
     <row r="17">
@@ -1248,17 +1248,17 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05023375507428855</v>
+        <v>0.05100185447672873</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.01767639565602115</v>
+        <v>0.01665227237526758</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.00868900860972179</v>
+        <v>0.009403397778362384</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05323338863164936</v>
+        <v>0.05180860008851555</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.007434311824035526</v>
+        <v>0.007452462431656321</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05964422561655849</v>
+        <v>0.06224287303537134</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01164646421324993</v>
+        <v>0.01159411532599785</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01029718043378072</v>
+        <v>0.01050025712288415</v>
       </c>
     </row>
     <row r="18">
@@ -1290,38 +1290,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1313668804776617</v>
+        <v>0.1283849044865452</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.08425542831994816</v>
+        <v>0.08604582539375588</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04266759722063416</v>
+        <v>0.04167570448010098</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1319890056605716</v>
+        <v>0.125523138238411</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03467101818053705</v>
+        <v>0.03215861652734364</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02928532075890282</v>
+        <v>0.03103507948958782</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02981179797706763</v>
+        <v>0.02993301481187755</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1158537666800361</v>
+        <v>0.1173736809934512</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01736956637887563</v>
+        <v>0.01597868094673792</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04423839678986419</v>
+        <v>0.04582953320306635</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02925571157953321</v>
+        <v>0.02890130808225739</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.02395795567126203</v>
+        <v>0.02395795567126202</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.009134692465136939</v>
@@ -1380,14 +1380,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003199471593847577</v>
+        <v>0.003202259676931767</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003520695373354594</v>
+        <v>0.003841696207314338</v>
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.006409077168709653</v>
+        <v>0.006482580800231815</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1395,17 +1395,17 @@
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
-        <v>0.01232821957210039</v>
+        <v>0.01327830166179785</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003489823937443359</v>
+        <v>0.003434106928871664</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.00172825192837084</v>
+        <v>0.001738755831692576</v>
       </c>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
-        <v>0.01233069972209219</v>
+        <v>0.01209884399248047</v>
       </c>
     </row>
     <row r="21">
@@ -1416,32 +1416,32 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02968175188212597</v>
+        <v>0.03075017302880963</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0330175029776054</v>
+        <v>0.03364727722161494</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.03122354338706573</v>
+        <v>0.03249052980676684</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02390720970033621</v>
+        <v>0.02579634114100675</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.04153610284982923</v>
+        <v>0.04505219742619079</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02193242220015047</v>
+        <v>0.02005830262098033</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01751831620847329</v>
+        <v>0.01670546367128676</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.03164320449607579</v>
+        <v>0.03192247195501353</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.0271995612345865</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04080030836764754</v>
+        <v>0.04080030836764753</v>
       </c>
     </row>
     <row r="23">
@@ -1500,40 +1500,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004199214151585253</v>
+        <v>0.003238288293275839</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007041056297178461</v>
+        <v>0.006947146501342907</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01960270213274859</v>
+        <v>0.0182899646714667</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02492605260112115</v>
+        <v>0.02640569504206116</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.002856322838929192</v>
+        <v>0.002853531573622458</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.007092849769049655</v>
+        <v>0.007069871004189264</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01350240038162143</v>
+        <v>0.01352935232652891</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02728814205030504</v>
+        <v>0.02768929841496624</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.004507743059600089</v>
+        <v>0.004445040861157011</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008967063319686566</v>
+        <v>0.009149450318957673</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01843568509557508</v>
+        <v>0.0190547748446932</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.0305397478611141</v>
+        <v>0.03139214209302542</v>
       </c>
     </row>
     <row r="24">
@@ -1544,40 +1544,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02384137873135565</v>
+        <v>0.0246058212930488</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02625075014493197</v>
+        <v>0.02419614462983341</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0494439461517741</v>
+        <v>0.05040564854387154</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0673256057603452</v>
+        <v>0.06922726038954317</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01776909500365701</v>
+        <v>0.01659001949606992</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02913494267275752</v>
+        <v>0.02822407145229283</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03689453001199119</v>
+        <v>0.03681934558113372</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05576025871829828</v>
+        <v>0.05643192322937025</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01636699229395283</v>
+        <v>0.01643453259494007</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02240642657017493</v>
+        <v>0.02242061224587464</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03756465958212225</v>
+        <v>0.03864464731589887</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05601210969670269</v>
+        <v>0.05642619838109094</v>
       </c>
     </row>
     <row r="25">
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.009165063122330721</v>
+        <v>0.008669414505704957</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009624554536274732</v>
+        <v>0.00950249722330212</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01088005323964191</v>
+        <v>0.0110032910214436</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01107704962129986</v>
+        <v>0.01132826727782892</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01082315299867104</v>
+        <v>0.0104306023115425</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01241568281160245</v>
+        <v>0.01186475798714831</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01587056382239722</v>
+        <v>0.01470009826839795</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.008927779984743155</v>
+        <v>0.008729864464678584</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01150214988918263</v>
+        <v>0.01151369647122854</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.0142053938994904</v>
+        <v>0.01393398068924981</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01487005755208736</v>
+        <v>0.01535336327393419</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01202641525096913</v>
+        <v>0.01130031984552198</v>
       </c>
     </row>
     <row r="27">
@@ -1680,40 +1680,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02655855770178336</v>
+        <v>0.0263823793898112</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03530399668235908</v>
+        <v>0.03463019277352621</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02939127039651188</v>
+        <v>0.03174969494050041</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03224560533083754</v>
+        <v>0.03320064781220618</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03284826475740104</v>
+        <v>0.03299064047122345</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03674639821614865</v>
+        <v>0.03852008737921277</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03942782877601288</v>
+        <v>0.03831882680352554</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02294485895024832</v>
+        <v>0.02348460360524709</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02538267567979869</v>
+        <v>0.02565313952195702</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03089117014402515</v>
+        <v>0.02987791311568425</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03060052241053637</v>
+        <v>0.03169471113877453</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02486039487755248</v>
+        <v>0.02435485764884989</v>
       </c>
     </row>
     <row r="28">
@@ -1749,7 +1749,7 @@
         <v>0.01684021372343114</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.02524756570201811</v>
+        <v>0.02524756570201812</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.02111270282602259</v>
@@ -1761,7 +1761,7 @@
         <v>0.01874020404678483</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.02717683336804382</v>
+        <v>0.02717683336804381</v>
       </c>
     </row>
     <row r="29">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01680354286804673</v>
+        <v>0.01674805776051106</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01716725408749016</v>
+        <v>0.01739179500325085</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01597686030549271</v>
+        <v>0.01639614548125106</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02306512664005059</v>
+        <v>0.0234356419320887</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01600452319313419</v>
+        <v>0.01641497383582756</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01415501032243655</v>
+        <v>0.01381532839881635</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01325096155982227</v>
+        <v>0.0128351294274809</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0210326492188282</v>
+        <v>0.02117527927408592</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01791338027321584</v>
+        <v>0.01765666482636548</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01686747517256848</v>
+        <v>0.01718269304972934</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01556939689635597</v>
+        <v>0.01573129365782322</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02350089482429639</v>
+        <v>0.02354427146744333</v>
       </c>
     </row>
     <row r="30">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02716655359054718</v>
+        <v>0.02742080444328979</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02873754901468104</v>
+        <v>0.02848585349785329</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02589410456963462</v>
+        <v>0.02595075834851577</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03663773220104943</v>
+        <v>0.0366325391653606</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.026346246769976</v>
+        <v>0.02655073934977242</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.02473820169152301</v>
+        <v>0.02424202754594944</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02219278475277642</v>
+        <v>0.02168162697612598</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03049189505777665</v>
+        <v>0.03048789942205974</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.02502403741671308</v>
+        <v>0.0248546814804536</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.02434047841880316</v>
+        <v>0.02454695256297445</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02233252796408997</v>
+        <v>0.02249227103648036</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03110763019590753</v>
+        <v>0.03199598862097031</v>
       </c>
     </row>
     <row r="31">
@@ -2124,40 +2124,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2588</v>
+        <v>2568</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6541</v>
+        <v>6475</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>980</v>
+        <v>1852</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5136</v>
+        <v>5291</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2038</v>
+        <v>2857</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5069</v>
+        <v>5337</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5113</v>
+        <v>4476</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11385</v>
+        <v>11293</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3698</v>
+        <v>3951</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12242</v>
+        <v>11974</v>
       </c>
     </row>
     <row r="7">
@@ -2168,40 +2168,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13119</v>
+        <v>13417</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22486</v>
+        <v>22354</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11957</v>
+        <v>13787</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16755</v>
+        <v>16497</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8750</v>
+        <v>8715</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12631</v>
+        <v>13090</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8629</v>
+        <v>8563</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>15624</v>
+        <v>16231</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18686</v>
+        <v>17161</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30432</v>
+        <v>30016</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16486</v>
+        <v>17286</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>27429</v>
+        <v>27896</v>
       </c>
     </row>
     <row r="8">
@@ -2304,40 +2304,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10598</v>
+        <v>10228</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8918</v>
+        <v>9168</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3983</v>
+        <v>3943</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9081</v>
+        <v>9033</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12845</v>
+        <v>11978</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1980</v>
+        <v>2080</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8325</v>
+        <v>8256</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22844</v>
+        <v>23348</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>26220</v>
+        <v>24912</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4148</v>
+        <v>4076</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>15297</v>
+        <v>14835</v>
       </c>
     </row>
     <row r="11">
@@ -2348,40 +2348,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27650</v>
+        <v>28111</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>27437</v>
+        <v>27963</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9319</v>
+        <v>9224</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17719</v>
+        <v>18022</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>25555</v>
+        <v>25104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>33594</v>
+        <v>32138</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12093</v>
+        <v>13204</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>22017</v>
+        <v>21688</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>46416</v>
+        <v>48770</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>54280</v>
+        <v>54409</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17617</v>
+        <v>16007</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>34492</v>
+        <v>34283</v>
       </c>
     </row>
     <row r="12">
@@ -2490,32 +2490,32 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5099</v>
+        <v>5267</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2638</v>
+        <v>2420</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>898</v>
+        <v>929</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1344</v>
+        <v>1648</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1810</v>
+        <v>1787</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7580</v>
+        <v>7151</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>5542</v>
+        <v>5445</v>
       </c>
     </row>
     <row r="15">
@@ -2526,38 +2526,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5377</v>
+        <v>5335</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6875</v>
+        <v>6895</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17555</v>
+        <v>18577</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11786</v>
+        <v>12315</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8949</v>
+        <v>8974</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>8069</v>
+        <v>7775</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7417</v>
+        <v>7621</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10905</v>
+        <v>11343</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>7552</v>
+        <v>7037</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21258</v>
+        <v>21326</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16640</v>
+        <v>16723</v>
       </c>
     </row>
     <row r="16">
@@ -2660,40 +2660,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2689</v>
+        <v>2724</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7680</v>
+        <v>9114</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3075</v>
+        <v>3755</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14698</v>
+        <v>14607</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3701</v>
+        <v>3595</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4149</v>
+        <v>4221</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4204</v>
+        <v>3521</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8895</v>
+        <v>9105</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8101</v>
+        <v>8669</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>15584</v>
+        <v>16440</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8779</v>
+        <v>9512</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>27319</v>
+        <v>27181</v>
       </c>
     </row>
     <row r="19">
@@ -2704,40 +2704,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15042</v>
+        <v>15947</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26120</v>
+        <v>27711</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15442</v>
+        <v>16759</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39771</v>
+        <v>42327</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14747</v>
+        <v>14124</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15758</v>
+        <v>16034</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18225</v>
+        <v>17907</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22801</v>
+        <v>22439</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>24138</v>
+        <v>23819</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>37086</v>
+        <v>38598</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>27054</v>
+        <v>29420</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>56542</v>
+        <v>59953</v>
       </c>
     </row>
     <row r="20">
@@ -2840,17 +2840,17 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10213</v>
+        <v>10369</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>3734</v>
+        <v>3517</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1787</v>
+        <v>1934</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11055</v>
+        <v>10759</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
@@ -2859,19 +2859,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1689</v>
+        <v>1693</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>24512</v>
+        <v>25580</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>5006</v>
+        <v>4983</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4457</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="23">
@@ -2882,38 +2882,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26708</v>
+        <v>26102</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>17797</v>
+        <v>18175</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8775</v>
+        <v>8571</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27410</v>
+        <v>26067</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7613</v>
+        <v>7062</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6401</v>
+        <v>6784</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6774</v>
+        <v>6801</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>47613</v>
+        <v>48238</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>7507</v>
+        <v>6906</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>19014</v>
+        <v>19698</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>12664</v>
+        <v>12511</v>
       </c>
     </row>
     <row r="24">
@@ -3016,14 +3016,14 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>965</v>
+        <v>1053</v>
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>1735</v>
+        <v>1755</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -3031,17 +3031,17 @@
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
-        <v>3252</v>
+        <v>3502</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1916</v>
+        <v>1885</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="M26" s="6" t="inlineStr"/>
       <c r="N26" s="6" t="n">
-        <v>6590</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="27">
@@ -3052,32 +3052,32 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8038</v>
+        <v>8327</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9046</v>
+        <v>9219</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>8452</v>
+        <v>8795</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6650</v>
+        <v>7175</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>10955</v>
+        <v>11883</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>12040</v>
+        <v>11011</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>9705</v>
+        <v>9255</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>16912</v>
+        <v>17061</v>
       </c>
     </row>
     <row r="28">
@@ -3180,40 +3180,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2578</v>
+        <v>1988</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4667</v>
+        <v>4604</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>12811</v>
+        <v>11953</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17939</v>
+        <v>19004</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4921</v>
+        <v>4905</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9269</v>
+        <v>9287</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>21039</v>
+        <v>21348</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>5639</v>
+        <v>5561</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>12165</v>
+        <v>12413</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>24704</v>
+        <v>25534</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>45525</v>
+        <v>46796</v>
       </c>
     </row>
     <row r="31">
@@ -3224,40 +3224,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14639</v>
+        <v>15109</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>17399</v>
+        <v>16037</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>32314</v>
+        <v>32942</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>48453</v>
+        <v>49822</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11320</v>
+        <v>10568</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>20215</v>
+        <v>19583</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>25327</v>
+        <v>25275</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>42991</v>
+        <v>43509</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>20476</v>
+        <v>20561</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>30397</v>
+        <v>30417</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>50337</v>
+        <v>51784</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>83496</v>
+        <v>84113</v>
       </c>
     </row>
     <row r="32">
@@ -3360,40 +3360,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>6796</v>
+        <v>6428</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>7498</v>
+        <v>7403</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8471</v>
+        <v>8567</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8840</v>
+        <v>9041</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>8480</v>
+        <v>8172</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>10229</v>
+        <v>9775</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>13112</v>
+        <v>12145</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7415</v>
+        <v>7251</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>17541</v>
+        <v>17558</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>22771</v>
+        <v>22335</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>23863</v>
+        <v>24638</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>19587</v>
+        <v>18405</v>
       </c>
     </row>
     <row r="35">
@@ -3404,40 +3404,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>19692</v>
+        <v>19562</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>27505</v>
+        <v>26980</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>22884</v>
+        <v>24720</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>25734</v>
+        <v>26497</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>25737</v>
+        <v>25849</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>30274</v>
+        <v>31735</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>32574</v>
+        <v>31658</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>19058</v>
+        <v>19507</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>38708</v>
+        <v>39121</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>49517</v>
+        <v>47893</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>49106</v>
+        <v>50862</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>40490</v>
+        <v>39666</v>
       </c>
     </row>
     <row r="36">
@@ -3540,40 +3540,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>54950</v>
+        <v>54768</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>58812</v>
+        <v>59581</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>54153</v>
+        <v>55574</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>81484</v>
+        <v>82793</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>54050</v>
+        <v>55436</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>50368</v>
+        <v>49159</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>46892</v>
+        <v>45420</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>78525</v>
+        <v>79057</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>119076</v>
+        <v>117369</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>117804</v>
+        <v>120006</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>107868</v>
+        <v>108989</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>170763</v>
+        <v>171078</v>
       </c>
     </row>
     <row r="39">
@@ -3584,40 +3584,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>88838</v>
+        <v>89670</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>98449</v>
+        <v>97587</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>87766</v>
+        <v>87958</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>129432</v>
+        <v>129414</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>88976</v>
+        <v>89666</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>88026</v>
+        <v>86261</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>78534</v>
+        <v>76726</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>113840</v>
+        <v>113825</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>166342</v>
+        <v>165217</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>169997</v>
+        <v>171439</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>154724</v>
+        <v>155830</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>226035</v>
+        <v>232490</v>
       </c>
     </row>
     <row r="40">
